--- a/analysis/post_gemini_data/Participant160/task_hard.xlsx
+++ b/analysis/post_gemini_data/Participant160/task_hard.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BE9"/>
+  <dimension ref="A1:BE8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,579 +422,355 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>arg3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>arg4</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>arg5</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>arg6</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>assign</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>condibody1</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>conditbody2</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>condstat1</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>condstat2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>external1</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>external2</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>external4</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>externalvar1</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>index1</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>index2</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>index3</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>literal1</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>literal2</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>literal3</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>literal4</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>loopbody</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>loopbody2</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>loopbody3</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>loopstat1</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>loopstat2</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>loopstat3</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>methocall3</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>methocall4</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>methocall6</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>methodcall</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>methodcall2</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>methodcall5</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>methoddec</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>param1</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>param2</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>param3</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>vairabl13</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>vairabl7</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>vairabl9</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>varaibl1</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>variab2</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
         <is>
           <t>variabl10</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AW1" t="inlineStr">
         <is>
           <t>variabl11</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AX1" t="inlineStr">
         <is>
           <t>variabl12</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AY1" t="inlineStr">
         <is>
           <t>variabl13</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AZ1" t="inlineStr">
         <is>
           <t>variabl4</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BA1" t="inlineStr">
         <is>
           <t>variabl5</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BB1" t="inlineStr">
         <is>
           <t>variabl8</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BC1" t="inlineStr">
         <is>
           <t>variavl6</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BD1" t="inlineStr">
         <is>
           <t>varibl3</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BE1" t="inlineStr">
         <is>
           <t>varibl7</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>arg1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>arg2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>arg3</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>arg4</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>arg5</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>arg6</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>condibody1</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>conditbody2</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>condstat1</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>condstat2</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>external1</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>external2</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>external4</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>externalvar1</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>gemini</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>index1</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>index2</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>index3</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>literal1</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>literal2</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>literal3</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>literal4</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>loopbody</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>loopbody2</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>loopbody3</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>loopstat1</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>loopstat2</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>loopstat3</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>methocall3</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>methocall4</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>methocall6</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>methodcall</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>methodcall2</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>methodcall5</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>methoddec</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>param1</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>param2</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>param3</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>summary</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>vairabl13</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>vairabl7</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>vairabl9</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>varaibl1</t>
-        </is>
-      </c>
-      <c r="AU2" t="inlineStr">
-        <is>
-          <t>variab2</t>
-        </is>
-      </c>
-      <c r="AV2" t="inlineStr">
-        <is>
-          <t>variabl10</t>
-        </is>
-      </c>
-      <c r="AW2" t="inlineStr">
-        <is>
-          <t>variabl11</t>
-        </is>
-      </c>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t>variabl12</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>variabl13</t>
-        </is>
-      </c>
-      <c r="AZ2" t="inlineStr">
-        <is>
-          <t>variabl4</t>
-        </is>
-      </c>
-      <c r="BA2" t="inlineStr">
-        <is>
-          <t>variabl5</t>
-        </is>
-      </c>
-      <c r="BB2" t="inlineStr">
-        <is>
-          <t>variabl8</t>
-        </is>
-      </c>
-      <c r="BC2" t="inlineStr">
-        <is>
-          <t>variavl6</t>
-        </is>
-      </c>
-      <c r="BD2" t="inlineStr">
-        <is>
-          <t>varibl3</t>
-        </is>
-      </c>
-      <c r="BE2" t="inlineStr">
-        <is>
-          <t>varibl7</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Fixation based metrics</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fixation based metrics</t>
+          <t>Revisit count</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -1016,8 +780,12 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
@@ -1025,7 +793,9 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>8</v>
+      </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
@@ -1033,9 +803,15 @@
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
@@ -1049,7 +825,9 @@
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
+      <c r="AP3" t="n">
+        <v>12</v>
+      </c>
       <c r="AQ3" t="inlineStr"/>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -1069,107 +847,65 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Revisit count</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
+          <t>Fixation count</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>22</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5</v>
-      </c>
-      <c r="M4" t="n">
         <v>1</v>
       </c>
-      <c r="N4" t="n">
-        <v>2</v>
-      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="AA4" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="AB4" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>4</v>
-      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>2</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
       <c r="AT4" t="inlineStr"/>
@@ -1188,107 +924,65 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fixation count</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
+          <t>Dwell time (ms)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>7</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>81</v>
+        <v>567.1799999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
-      </c>
-      <c r="K5" t="n">
-        <v>8</v>
-      </c>
-      <c r="L5" t="n">
-        <v>8</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="n">
-        <v>5</v>
-      </c>
+        <v>100.13</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>102</v>
+        <v>20037.42</v>
       </c>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="n">
-        <v>2</v>
-      </c>
-      <c r="U5" t="n">
-        <v>7</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1</v>
-      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>75</v>
+        <v>233.59</v>
       </c>
       <c r="AA5" t="n">
-        <v>69</v>
+        <v>233.59</v>
       </c>
       <c r="AB5" t="n">
-        <v>62</v>
+        <v>233.59</v>
       </c>
       <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>3</v>
-      </c>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>8</v>
-      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="n">
-        <v>385</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>3</v>
-      </c>
+        <v>19602.95</v>
+      </c>
+      <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
       <c r="AT5" t="inlineStr"/>
@@ -1307,107 +1001,65 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dwell time (ms)</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>400.43</v>
-      </c>
+          <t>Dwell time (%)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="n">
-        <v>283.58</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1334.72</v>
-      </c>
-      <c r="F6" t="n">
-        <v>417.17</v>
-      </c>
-      <c r="G6" t="n">
-        <v>333.57</v>
-      </c>
-      <c r="H6" t="n">
-        <v>150.18</v>
-      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>14867.03</v>
+        <v>0.55</v>
       </c>
       <c r="J6" t="n">
-        <v>8742.17</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1635.09</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2002.05</v>
-      </c>
-      <c r="M6" t="n">
-        <v>467.16</v>
-      </c>
-      <c r="N6" t="n">
-        <v>650.58</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>20037.42</v>
+        <v>19.18</v>
       </c>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="n">
-        <v>684.02</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1368.05</v>
-      </c>
-      <c r="V6" t="n">
-        <v>400.43</v>
-      </c>
-      <c r="W6" t="n">
-        <v>283.58</v>
-      </c>
-      <c r="X6" t="n">
-        <v>667.39</v>
-      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>13615.4</v>
+        <v>0.22</v>
       </c>
       <c r="AA6" t="n">
-        <v>12863.5</v>
+        <v>0.22</v>
       </c>
       <c r="AB6" t="n">
-        <v>11261.55</v>
+        <v>0.22</v>
       </c>
       <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="n">
-        <v>400.43</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>800.77</v>
-      </c>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="n">
-        <v>183.57</v>
-      </c>
+      <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="n">
-        <v>550.5599999999999</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1267.84</v>
-      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="n">
-        <v>83152.98</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>583.8099999999999</v>
-      </c>
+        <v>18.85</v>
+      </c>
+      <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="inlineStr"/>
@@ -1426,107 +1078,65 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dwell time (%)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.15</v>
-      </c>
+          <t>Fixation duration (ms)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.06</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>5.74</v>
+        <v>141.79</v>
       </c>
       <c r="J7" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.25</v>
-      </c>
+        <v>100.13</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>19.18</v>
+        <v>196.45</v>
       </c>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.26</v>
-      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>5.25</v>
+        <v>116.8</v>
       </c>
       <c r="AA7" t="n">
-        <v>4.96</v>
+        <v>116.8</v>
       </c>
       <c r="AB7" t="n">
-        <v>4.34</v>
+        <v>116.8</v>
       </c>
       <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0.31</v>
-      </c>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="n">
-        <v>0.07000000000000001</v>
-      </c>
+      <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0.49</v>
-      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="n">
-        <v>32.08</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>0.23</v>
-      </c>
+        <v>227.94</v>
+      </c>
+      <c r="AQ7" t="inlineStr"/>
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr"/>
       <c r="AT7" t="inlineStr"/>
@@ -1545,107 +1155,65 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fixation duration (ms)</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>400.43</v>
-      </c>
+          <t>First fixation duration (ms)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="n">
-        <v>283.58</v>
-      </c>
-      <c r="E8" t="n">
-        <v>190.67</v>
-      </c>
-      <c r="F8" t="n">
-        <v>208.58</v>
-      </c>
-      <c r="G8" t="n">
-        <v>333.57</v>
-      </c>
-      <c r="H8" t="n">
-        <v>150.18</v>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>183.54</v>
+        <v>133.46</v>
       </c>
       <c r="J8" t="n">
-        <v>174.84</v>
-      </c>
-      <c r="K8" t="n">
-        <v>204.39</v>
-      </c>
-      <c r="L8" t="n">
-        <v>250.26</v>
-      </c>
-      <c r="M8" t="n">
-        <v>233.58</v>
-      </c>
-      <c r="N8" t="n">
-        <v>130.12</v>
-      </c>
+        <v>100.13</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>196.45</v>
+        <v>116.81</v>
       </c>
       <c r="S8" t="inlineStr"/>
-      <c r="T8" t="n">
-        <v>342.01</v>
-      </c>
-      <c r="U8" t="n">
-        <v>195.44</v>
-      </c>
-      <c r="V8" t="n">
-        <v>400.43</v>
-      </c>
-      <c r="W8" t="n">
-        <v>283.58</v>
-      </c>
-      <c r="X8" t="n">
-        <v>667.39</v>
-      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>181.54</v>
+        <v>133.46</v>
       </c>
       <c r="AA8" t="n">
-        <v>186.43</v>
+        <v>133.46</v>
       </c>
       <c r="AB8" t="n">
-        <v>181.64</v>
+        <v>133.46</v>
       </c>
       <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="n">
-        <v>400.43</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>266.92</v>
-      </c>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="n">
-        <v>183.57</v>
-      </c>
+      <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="n">
-        <v>183.52</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>158.48</v>
-      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="n">
-        <v>215.98</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>194.6</v>
-      </c>
+        <v>133.5</v>
+      </c>
+      <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
       <c r="AT8" t="inlineStr"/>
@@ -1661,125 +1229,6 @@
       <c r="BD8" t="inlineStr"/>
       <c r="BE8" t="inlineStr"/>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>First fixation duration (ms)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>400.43</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
-        <v>283.58</v>
-      </c>
-      <c r="E9" t="n">
-        <v>116.72</v>
-      </c>
-      <c r="F9" t="n">
-        <v>83.5</v>
-      </c>
-      <c r="G9" t="n">
-        <v>333.57</v>
-      </c>
-      <c r="H9" t="n">
-        <v>150.18</v>
-      </c>
-      <c r="I9" t="n">
-        <v>183.35</v>
-      </c>
-      <c r="J9" t="n">
-        <v>183.57</v>
-      </c>
-      <c r="K9" t="n">
-        <v>233.65</v>
-      </c>
-      <c r="L9" t="n">
-        <v>183.57</v>
-      </c>
-      <c r="M9" t="n">
-        <v>183.57</v>
-      </c>
-      <c r="N9" t="n">
-        <v>316.99</v>
-      </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="n">
-        <v>116.81</v>
-      </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="n">
-        <v>283.58</v>
-      </c>
-      <c r="U9" t="n">
-        <v>183.57</v>
-      </c>
-      <c r="V9" t="n">
-        <v>400.43</v>
-      </c>
-      <c r="W9" t="n">
-        <v>283.58</v>
-      </c>
-      <c r="X9" t="n">
-        <v>667.39</v>
-      </c>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="n">
-        <v>183.35</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>183.35</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>400.44</v>
-      </c>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="n">
-        <v>400.43</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>283.58</v>
-      </c>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="n">
-        <v>183.57</v>
-      </c>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="n">
-        <v>183.57</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>233.56</v>
-      </c>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="n">
-        <v>250.01</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>216.88</v>
-      </c>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr"/>
-      <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="inlineStr"/>
-      <c r="AV9" t="inlineStr"/>
-      <c r="AW9" t="inlineStr"/>
-      <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="inlineStr"/>
-      <c r="AZ9" t="inlineStr"/>
-      <c r="BA9" t="inlineStr"/>
-      <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr"/>
-      <c r="BD9" t="inlineStr"/>
-      <c r="BE9" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
